--- a/greeks.xlsx
+++ b/greeks.xlsx
@@ -437,57 +437,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>delta_n0.1</t>
+          <t>Delta -10%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>delta_n0.07</t>
+          <t>Delta -7%</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>delta_n0.05</t>
+          <t>Delta -5%</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>delta_n0.02</t>
+          <t>Delta -2%</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>delta_n0.01</t>
+          <t>Delta -1%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>delta_0.0</t>
+          <t>Delta 0%</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>delta_0.01</t>
+          <t>Delta 1%</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>delta_0.02</t>
+          <t>Delta 2%</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>delta_0.05</t>
+          <t>Delta 5%</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>delta_0.07</t>
+          <t>Delta 7%</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>delta_0.1</t>
+          <t>Delta 10%</t>
         </is>
       </c>
     </row>
@@ -534,41 +534,41 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Buy</t>
+          <t>USD/MXN-Put-Buy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.55</v>
+        <v>-34999995.86</v>
       </c>
       <c r="C3" t="n">
-        <v>2523.08</v>
+        <v>-34997056.41</v>
       </c>
       <c r="D3" t="n">
-        <v>65456.68</v>
+        <v>-34923633.87</v>
       </c>
       <c r="E3" t="n">
-        <v>1934939.32</v>
+        <v>-32742570.79</v>
       </c>
       <c r="F3" t="n">
-        <v>4182459.58</v>
+        <v>-30120463.82</v>
       </c>
       <c r="G3" t="n">
-        <v>7714083.32</v>
+        <v>-26000236.13</v>
       </c>
       <c r="H3" t="n">
-        <v>12321101.34</v>
+        <v>-20625381.77</v>
       </c>
       <c r="I3" t="n">
-        <v>17337025.32</v>
+        <v>-14773470.46</v>
       </c>
       <c r="J3" t="n">
-        <v>27747363.27</v>
+        <v>-2628076.19</v>
       </c>
       <c r="K3" t="n">
-        <v>29630974.67</v>
+        <v>-430529.56</v>
       </c>
       <c r="L3" t="n">
-        <v>29991036.77</v>
+        <v>-10457.1</v>
       </c>
     </row>
     <row r="4">
@@ -578,37 +578,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-69999991.70999999</v>
+        <v>-14999998.22</v>
       </c>
       <c r="C4" t="n">
-        <v>-69994112.81</v>
+        <v>-14998738.46</v>
       </c>
       <c r="D4" t="n">
-        <v>-69847267.73999999</v>
+        <v>-14967271.66</v>
       </c>
       <c r="E4" t="n">
-        <v>-65485141.59</v>
+        <v>-14032530.34</v>
       </c>
       <c r="F4" t="n">
-        <v>-60240927.64</v>
+        <v>-12908770.21</v>
       </c>
       <c r="G4" t="n">
-        <v>-52000472.26</v>
+        <v>-11142958.34</v>
       </c>
       <c r="H4" t="n">
-        <v>-41250763.54</v>
+        <v>-8839449.33</v>
       </c>
       <c r="I4" t="n">
-        <v>-29546940.92</v>
+        <v>-6331487.34</v>
       </c>
       <c r="J4" t="n">
-        <v>-5256152.37</v>
+        <v>-1126318.37</v>
       </c>
       <c r="K4" t="n">
-        <v>-861059.11</v>
+        <v>-184512.67</v>
       </c>
       <c r="L4" t="n">
-        <v>-20914.2</v>
+        <v>-4481.61</v>
       </c>
     </row>
     <row r="5">
@@ -618,237 +618,237 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69999991.70999999</v>
+        <v>24999997.04</v>
       </c>
       <c r="C5" t="n">
-        <v>69994112.81</v>
+        <v>24997897.43</v>
       </c>
       <c r="D5" t="n">
-        <v>69847267.73999999</v>
+        <v>24945452.77</v>
       </c>
       <c r="E5" t="n">
-        <v>65485141.59</v>
+        <v>23387550.57</v>
       </c>
       <c r="F5" t="n">
-        <v>60240927.64</v>
+        <v>21514617.01</v>
       </c>
       <c r="G5" t="n">
-        <v>52000472.26</v>
+        <v>18571597.24</v>
       </c>
       <c r="H5" t="n">
-        <v>41250763.54</v>
+        <v>14732415.55</v>
       </c>
       <c r="I5" t="n">
-        <v>29546940.92</v>
+        <v>10552478.9</v>
       </c>
       <c r="J5" t="n">
-        <v>5256152.37</v>
+        <v>1877197.28</v>
       </c>
       <c r="K5" t="n">
-        <v>861059.11</v>
+        <v>307521.11</v>
       </c>
       <c r="L5" t="n">
-        <v>20914.2</v>
+        <v>7469.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Put-Sell</t>
+          <t>USD/MXN-Call-Sell</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79999990.53</v>
+        <v>-4.14</v>
       </c>
       <c r="C6" t="n">
-        <v>79993271.79000001</v>
+        <v>-2943.59</v>
       </c>
       <c r="D6" t="n">
-        <v>79825448.84999999</v>
+        <v>-76366.13</v>
       </c>
       <c r="E6" t="n">
-        <v>74840161.81999999</v>
+        <v>-2257429.21</v>
       </c>
       <c r="F6" t="n">
-        <v>68846774.45</v>
+        <v>-4879536.18</v>
       </c>
       <c r="G6" t="n">
-        <v>59429111.15</v>
+        <v>-8999763.869999999</v>
       </c>
       <c r="H6" t="n">
-        <v>47143729.76</v>
+        <v>-14374618.23</v>
       </c>
       <c r="I6" t="n">
-        <v>33767932.49</v>
+        <v>-20226529.54</v>
       </c>
       <c r="J6" t="n">
-        <v>6007031.28</v>
+        <v>-32371923.81</v>
       </c>
       <c r="K6" t="n">
-        <v>984067.5600000001</v>
+        <v>-34569470.44</v>
       </c>
       <c r="L6" t="n">
-        <v>23901.94</v>
+        <v>-34989542.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.65</v>
+        <v>44999994.67</v>
       </c>
       <c r="C7" t="n">
-        <v>-7569.24</v>
+        <v>44996215.38</v>
       </c>
       <c r="D7" t="n">
-        <v>-196370.04</v>
+        <v>44901814.98</v>
       </c>
       <c r="E7" t="n">
-        <v>-5804817.96</v>
+        <v>42097591.02</v>
       </c>
       <c r="F7" t="n">
-        <v>-12547378.75</v>
+        <v>38726310.63</v>
       </c>
       <c r="G7" t="n">
-        <v>-23142249.95</v>
+        <v>33428875.02</v>
       </c>
       <c r="H7" t="n">
-        <v>-36963304.02</v>
+        <v>26518347.99</v>
       </c>
       <c r="I7" t="n">
-        <v>-52011075.95</v>
+        <v>18994462.02</v>
       </c>
       <c r="J7" t="n">
-        <v>-83242089.81</v>
+        <v>3378955.1</v>
       </c>
       <c r="K7" t="n">
-        <v>-88892924</v>
+        <v>553538</v>
       </c>
       <c r="L7" t="n">
-        <v>-89973110.31999999</v>
+        <v>13444.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.14</v>
+        <v>11999998.58</v>
       </c>
       <c r="C8" t="n">
-        <v>-2943.59</v>
+        <v>11998990.77</v>
       </c>
       <c r="D8" t="n">
-        <v>-76366.13</v>
+        <v>11973817.33</v>
       </c>
       <c r="E8" t="n">
-        <v>-2257429.21</v>
+        <v>11226024.27</v>
       </c>
       <c r="F8" t="n">
-        <v>-4879536.18</v>
+        <v>10327016.17</v>
       </c>
       <c r="G8" t="n">
-        <v>-8999763.869999999</v>
+        <v>8914366.67</v>
       </c>
       <c r="H8" t="n">
-        <v>-14374618.23</v>
+        <v>7071559.46</v>
       </c>
       <c r="I8" t="n">
-        <v>-20226529.54</v>
+        <v>5065189.87</v>
       </c>
       <c r="J8" t="n">
-        <v>-32371923.81</v>
+        <v>901054.6899999999</v>
       </c>
       <c r="K8" t="n">
-        <v>-34569470.44</v>
+        <v>147610.13</v>
       </c>
       <c r="L8" t="n">
-        <v>-34989542.9</v>
+        <v>3585.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.96</v>
+        <v>20428569.01</v>
       </c>
       <c r="C9" t="n">
-        <v>-2102.57</v>
+        <v>20426853.33</v>
       </c>
       <c r="D9" t="n">
-        <v>-54547.23</v>
+        <v>20383998.55</v>
       </c>
       <c r="E9" t="n">
-        <v>-1612449.43</v>
+        <v>19110969.89</v>
       </c>
       <c r="F9" t="n">
-        <v>-3485382.99</v>
+        <v>17580515.62</v>
       </c>
       <c r="G9" t="n">
-        <v>-6428402.76</v>
+        <v>15175648.03</v>
       </c>
       <c r="H9" t="n">
-        <v>-10267584.45</v>
+        <v>12038488.14</v>
       </c>
       <c r="I9" t="n">
-        <v>-14447521.1</v>
+        <v>8622882.76</v>
       </c>
       <c r="J9" t="n">
-        <v>-23122802.72</v>
+        <v>1533938.35</v>
       </c>
       <c r="K9" t="n">
-        <v>-24692478.89</v>
+        <v>251288.68</v>
       </c>
       <c r="L9" t="n">
-        <v>-24992530.64</v>
+        <v>6103.53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Put-Sell</t>
+          <t>USD/MXN-Call-Sell</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43999994.79</v>
+        <v>-2.11</v>
       </c>
       <c r="C10" t="n">
-        <v>43996299.48</v>
+        <v>-1495.83</v>
       </c>
       <c r="D10" t="n">
-        <v>43903996.87</v>
+        <v>-38806.46</v>
       </c>
       <c r="E10" t="n">
-        <v>41162089</v>
+        <v>-1147142.6</v>
       </c>
       <c r="F10" t="n">
-        <v>37865725.95</v>
+        <v>-2479601.04</v>
       </c>
       <c r="G10" t="n">
-        <v>32686011.13</v>
+        <v>-4573349.4</v>
       </c>
       <c r="H10" t="n">
-        <v>25929051.37</v>
+        <v>-7304652.94</v>
       </c>
       <c r="I10" t="n">
-        <v>18572362.87</v>
+        <v>-10278379.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3303867.21</v>
+        <v>-16450222.51</v>
       </c>
       <c r="K10" t="n">
-        <v>541237.16</v>
+        <v>-17566934.98</v>
       </c>
       <c r="L10" t="n">
-        <v>13146.07</v>
+        <v>-17780400.37</v>
       </c>
     </row>
     <row r="11">
@@ -858,117 +858,117 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47472216.6</v>
+        <v>15142855.35</v>
       </c>
       <c r="C11" t="n">
-        <v>47468229.68</v>
+        <v>15141583.59</v>
       </c>
       <c r="D11" t="n">
-        <v>47368643.08</v>
+        <v>15109817.1</v>
       </c>
       <c r="E11" t="n">
-        <v>44410359.91</v>
+        <v>14166173.49</v>
       </c>
       <c r="F11" t="n">
-        <v>40853867.2</v>
+        <v>13031710.88</v>
       </c>
       <c r="G11" t="n">
-        <v>35265399.64</v>
+        <v>11249081.75</v>
       </c>
       <c r="H11" t="n">
-        <v>27975220.19</v>
+        <v>8923634.560000001</v>
       </c>
       <c r="I11" t="n">
-        <v>20037984.94</v>
+        <v>6391787.22</v>
       </c>
       <c r="J11" t="n">
-        <v>3564589.05</v>
+        <v>1137045.21</v>
       </c>
       <c r="K11" t="n">
-        <v>583948.42</v>
+        <v>186269.93</v>
       </c>
       <c r="L11" t="n">
-        <v>14183.48</v>
+        <v>4524.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-5.44</v>
+        <v>12499998.52</v>
       </c>
       <c r="C12" t="n">
-        <v>-3867.79</v>
+        <v>12498948.72</v>
       </c>
       <c r="D12" t="n">
-        <v>-100342.67</v>
+        <v>12472726.38</v>
       </c>
       <c r="E12" t="n">
-        <v>-2966190.31</v>
+        <v>11693775.28</v>
       </c>
       <c r="F12" t="n">
-        <v>-6411555.63</v>
+        <v>10757308.51</v>
       </c>
       <c r="G12" t="n">
-        <v>-11825404.02</v>
+        <v>9285798.619999999</v>
       </c>
       <c r="H12" t="n">
-        <v>-18887792.02</v>
+        <v>7366207.78</v>
       </c>
       <c r="I12" t="n">
-        <v>-26577017.7</v>
+        <v>5276239.45</v>
       </c>
       <c r="J12" t="n">
-        <v>-42535680.21</v>
+        <v>938598.64</v>
       </c>
       <c r="K12" t="n">
-        <v>-45423186.72</v>
+        <v>153760.56</v>
       </c>
       <c r="L12" t="n">
-        <v>-45975148.59</v>
+        <v>3734.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-5.27</v>
+        <v>9857141.689999999</v>
       </c>
       <c r="C13" t="n">
-        <v>-3743.04</v>
+        <v>9856313.85</v>
       </c>
       <c r="D13" t="n">
-        <v>-97106.2</v>
+        <v>9835635.66</v>
       </c>
       <c r="E13" t="n">
-        <v>-2870518.31</v>
+        <v>9221377.08</v>
       </c>
       <c r="F13" t="n">
-        <v>-6204756.24</v>
+        <v>8482906.140000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-11443985.45</v>
+        <v>7322515.48</v>
       </c>
       <c r="H13" t="n">
-        <v>-18278582.01</v>
+        <v>5808780.99</v>
       </c>
       <c r="I13" t="n">
-        <v>-25719798.12</v>
+        <v>4160691.68</v>
       </c>
       <c r="J13" t="n">
-        <v>-41163727.25</v>
+        <v>740152.0699999999</v>
       </c>
       <c r="K13" t="n">
-        <v>-43958099.64</v>
+        <v>121251.18</v>
       </c>
       <c r="L13" t="n">
-        <v>-44492258.44</v>
+        <v>2945.06</v>
       </c>
     </row>
     <row r="14">
@@ -978,77 +978,77 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43022217.13</v>
+        <v>7214284.86</v>
       </c>
       <c r="C14" t="n">
-        <v>43018603.94</v>
+        <v>7213678.97</v>
       </c>
       <c r="D14" t="n">
-        <v>42928352.49</v>
+        <v>7198544.94</v>
       </c>
       <c r="E14" t="n">
-        <v>40247375.91</v>
+        <v>6748978.88</v>
       </c>
       <c r="F14" t="n">
-        <v>37024265.37</v>
+        <v>6208503.77</v>
       </c>
       <c r="G14" t="n">
-        <v>31959655.33</v>
+        <v>5359232.35</v>
       </c>
       <c r="H14" t="n">
-        <v>25352850.23</v>
+        <v>4251354.2</v>
       </c>
       <c r="I14" t="n">
-        <v>18159643.69</v>
+        <v>3045143.91</v>
       </c>
       <c r="J14" t="n">
-        <v>3230447.93</v>
+        <v>541705.5</v>
       </c>
       <c r="K14" t="n">
-        <v>529209.66</v>
+        <v>88741.81</v>
       </c>
       <c r="L14" t="n">
-        <v>12853.93</v>
+        <v>2155.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.92</v>
+        <v>4571428.03</v>
       </c>
       <c r="C15" t="n">
-        <v>-3493.53</v>
+        <v>4571044.1</v>
       </c>
       <c r="D15" t="n">
-        <v>-90633.25999999999</v>
+        <v>4561454.22</v>
       </c>
       <c r="E15" t="n">
-        <v>-2679174.31</v>
+        <v>4276580.68</v>
       </c>
       <c r="F15" t="n">
-        <v>-5791157.46</v>
+        <v>3934101.4</v>
       </c>
       <c r="G15" t="n">
-        <v>-10681148.33</v>
+        <v>3395949.21</v>
       </c>
       <c r="H15" t="n">
-        <v>-17060161.98</v>
+        <v>2693927.41</v>
       </c>
       <c r="I15" t="n">
-        <v>-24005358.94</v>
+        <v>1929596.14</v>
       </c>
       <c r="J15" t="n">
-        <v>-38419821.33</v>
+        <v>343258.93</v>
       </c>
       <c r="K15" t="n">
-        <v>-41027925.48</v>
+        <v>56232.43</v>
       </c>
       <c r="L15" t="n">
-        <v>-41526478.14</v>
+        <v>1365.83</v>
       </c>
     </row>
   </sheetData>
@@ -1073,57 +1073,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gamma_n0.1</t>
+          <t>Gamma -10%</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gamma_n0.07</t>
+          <t>Gamma -7%</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gamma_n0.05</t>
+          <t>Gamma -5%</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gamma_n0.02</t>
+          <t>Gamma -2%</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gamma_n0.01</t>
+          <t>Gamma -1%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>gamma_0.0</t>
+          <t>Gamma 0%</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>gamma_0.01</t>
+          <t>Gamma 1%</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>gamma_0.02</t>
+          <t>Gamma 2%</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>gamma_0.05</t>
+          <t>Gamma 5%</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gamma_0.07</t>
+          <t>Gamma 7%</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>gamma_0.1</t>
+          <t>Gamma 10%</t>
         </is>
       </c>
     </row>
@@ -1170,41 +1170,41 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Buy</t>
+          <t>USD/MXN-Put-Buy</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.140000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C3" t="n">
-        <v>4325.22</v>
+        <v>5046.09</v>
       </c>
       <c r="D3" t="n">
-        <v>88219.28999999999</v>
+        <v>102922.51</v>
       </c>
       <c r="E3" t="n">
-        <v>1620504.5</v>
+        <v>1890588.58</v>
       </c>
       <c r="F3" t="n">
-        <v>2853711.12</v>
+        <v>3329329.64</v>
       </c>
       <c r="G3" t="n">
-        <v>4146763.84</v>
+        <v>4837891.15</v>
       </c>
       <c r="H3" t="n">
-        <v>5000471.56</v>
+        <v>5833883.49</v>
       </c>
       <c r="I3" t="n">
-        <v>5031405.22</v>
+        <v>5869972.76</v>
       </c>
       <c r="J3" t="n">
-        <v>1821715.01</v>
+        <v>2125334.18</v>
       </c>
       <c r="K3" t="n">
-        <v>410309.74</v>
+        <v>478694.69</v>
       </c>
       <c r="L3" t="n">
-        <v>14167.72</v>
+        <v>16529.01</v>
       </c>
     </row>
     <row r="4">
@@ -1214,37 +1214,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>4.07</v>
       </c>
       <c r="C4" t="n">
-        <v>10092.17</v>
+        <v>2162.61</v>
       </c>
       <c r="D4" t="n">
-        <v>205845.01</v>
+        <v>44109.65</v>
       </c>
       <c r="E4" t="n">
-        <v>3781177.16</v>
+        <v>810252.25</v>
       </c>
       <c r="F4" t="n">
-        <v>6658659.27</v>
+        <v>1426855.56</v>
       </c>
       <c r="G4" t="n">
-        <v>9675782.300000001</v>
+        <v>2073381.92</v>
       </c>
       <c r="H4" t="n">
-        <v>11667766.97</v>
+        <v>2500235.78</v>
       </c>
       <c r="I4" t="n">
-        <v>11739945.52</v>
+        <v>2515702.61</v>
       </c>
       <c r="J4" t="n">
-        <v>4250668.35</v>
+        <v>910857.5</v>
       </c>
       <c r="K4" t="n">
-        <v>957389.39</v>
+        <v>205154.87</v>
       </c>
       <c r="L4" t="n">
-        <v>33058.02</v>
+        <v>7083.86</v>
       </c>
     </row>
     <row r="5">
@@ -1254,237 +1254,237 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-19</v>
+        <v>-6.79</v>
       </c>
       <c r="C5" t="n">
-        <v>-10092.17</v>
+        <v>-3604.35</v>
       </c>
       <c r="D5" t="n">
-        <v>-205845.01</v>
+        <v>-73516.08</v>
       </c>
       <c r="E5" t="n">
-        <v>-3781177.16</v>
+        <v>-1350420.42</v>
       </c>
       <c r="F5" t="n">
-        <v>-6658659.27</v>
+        <v>-2378092.6</v>
       </c>
       <c r="G5" t="n">
-        <v>-9675782.300000001</v>
+        <v>-3455636.53</v>
       </c>
       <c r="H5" t="n">
-        <v>-11667766.97</v>
+        <v>-4167059.63</v>
       </c>
       <c r="I5" t="n">
-        <v>-11739945.52</v>
+        <v>-4192837.69</v>
       </c>
       <c r="J5" t="n">
-        <v>-4250668.35</v>
+        <v>-1518095.84</v>
       </c>
       <c r="K5" t="n">
-        <v>-957389.39</v>
+        <v>-341924.78</v>
       </c>
       <c r="L5" t="n">
-        <v>-33058.02</v>
+        <v>-11806.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Put-Sell</t>
+          <t>USD/MXN-Call-Sell</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.71</v>
+        <v>-9.5</v>
       </c>
       <c r="C6" t="n">
-        <v>-11533.91</v>
+        <v>-5046.09</v>
       </c>
       <c r="D6" t="n">
-        <v>-235251.44</v>
+        <v>-102922.51</v>
       </c>
       <c r="E6" t="n">
-        <v>-4321345.33</v>
+        <v>-1890588.58</v>
       </c>
       <c r="F6" t="n">
-        <v>-7609896.31</v>
+        <v>-3329329.64</v>
       </c>
       <c r="G6" t="n">
-        <v>-11058036.91</v>
+        <v>-4837891.15</v>
       </c>
       <c r="H6" t="n">
-        <v>-13334590.83</v>
+        <v>-5833883.49</v>
       </c>
       <c r="I6" t="n">
-        <v>-13417080.59</v>
+        <v>-5869972.76</v>
       </c>
       <c r="J6" t="n">
-        <v>-4857906.69</v>
+        <v>-2125334.18</v>
       </c>
       <c r="K6" t="n">
-        <v>-1094159.3</v>
+        <v>-478694.69</v>
       </c>
       <c r="L6" t="n">
-        <v>-37780.6</v>
+        <v>-16529.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-24.43</v>
+        <v>-12.21</v>
       </c>
       <c r="C7" t="n">
-        <v>-12975.65</v>
+        <v>-6487.82</v>
       </c>
       <c r="D7" t="n">
-        <v>-264657.87</v>
+        <v>-132328.94</v>
       </c>
       <c r="E7" t="n">
-        <v>-4861513.5</v>
+        <v>-2430756.75</v>
       </c>
       <c r="F7" t="n">
-        <v>-8561133.35</v>
+        <v>-4280566.67</v>
       </c>
       <c r="G7" t="n">
-        <v>-12440291.53</v>
+        <v>-6220145.76</v>
       </c>
       <c r="H7" t="n">
-        <v>-15001414.68</v>
+        <v>-7500707.34</v>
       </c>
       <c r="I7" t="n">
-        <v>-15094215.67</v>
+        <v>-7547107.83</v>
       </c>
       <c r="J7" t="n">
-        <v>-5465145.02</v>
+        <v>-2732572.51</v>
       </c>
       <c r="K7" t="n">
-        <v>-1230929.21</v>
+        <v>-615464.61</v>
       </c>
       <c r="L7" t="n">
-        <v>-42503.17</v>
+        <v>-21251.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.5</v>
+        <v>-3.26</v>
       </c>
       <c r="C8" t="n">
-        <v>-5046.09</v>
+        <v>-1730.09</v>
       </c>
       <c r="D8" t="n">
-        <v>-102922.51</v>
+        <v>-35287.72</v>
       </c>
       <c r="E8" t="n">
-        <v>-1890588.58</v>
+        <v>-648201.8</v>
       </c>
       <c r="F8" t="n">
-        <v>-3329329.64</v>
+        <v>-1141484.45</v>
       </c>
       <c r="G8" t="n">
-        <v>-4837891.15</v>
+        <v>-1658705.54</v>
       </c>
       <c r="H8" t="n">
-        <v>-5833883.49</v>
+        <v>-2000188.62</v>
       </c>
       <c r="I8" t="n">
-        <v>-5869972.76</v>
+        <v>-2012562.09</v>
       </c>
       <c r="J8" t="n">
-        <v>-2125334.18</v>
+        <v>-728686</v>
       </c>
       <c r="K8" t="n">
-        <v>-478694.69</v>
+        <v>-164123.89</v>
       </c>
       <c r="L8" t="n">
-        <v>-16529.01</v>
+        <v>-5667.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.79</v>
+        <v>-5.54</v>
       </c>
       <c r="C9" t="n">
-        <v>-3604.35</v>
+        <v>-2945.27</v>
       </c>
       <c r="D9" t="n">
-        <v>-73516.08</v>
+        <v>-60073.14</v>
       </c>
       <c r="E9" t="n">
-        <v>-1350420.42</v>
+        <v>-1103486.4</v>
       </c>
       <c r="F9" t="n">
-        <v>-2378092.6</v>
+        <v>-1943241.38</v>
       </c>
       <c r="G9" t="n">
-        <v>-3455636.53</v>
+        <v>-2823748.71</v>
       </c>
       <c r="H9" t="n">
-        <v>-4167059.63</v>
+        <v>-3405083.01</v>
       </c>
       <c r="I9" t="n">
-        <v>-4192837.69</v>
+        <v>-3426147.37</v>
       </c>
       <c r="J9" t="n">
-        <v>-1518095.84</v>
+        <v>-1240501.17</v>
       </c>
       <c r="K9" t="n">
-        <v>-341924.78</v>
+        <v>-279401.39</v>
       </c>
       <c r="L9" t="n">
-        <v>-11806.44</v>
+        <v>-9647.549999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Put-Sell</t>
+          <t>USD/MXN-Call-Sell</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-11.94</v>
+        <v>-4.83</v>
       </c>
       <c r="C10" t="n">
-        <v>-6343.65</v>
+        <v>-2564.24</v>
       </c>
       <c r="D10" t="n">
-        <v>-129388.29</v>
+        <v>-52301.44</v>
       </c>
       <c r="E10" t="n">
-        <v>-2376739.93</v>
+        <v>-960727.67</v>
       </c>
       <c r="F10" t="n">
-        <v>-4185442.97</v>
+        <v>-1691843.02</v>
       </c>
       <c r="G10" t="n">
-        <v>-6081920.3</v>
+        <v>-2458438.56</v>
       </c>
       <c r="H10" t="n">
-        <v>-7334024.95</v>
+        <v>-2964565.28</v>
       </c>
       <c r="I10" t="n">
-        <v>-7379394.33</v>
+        <v>-2982904.52</v>
       </c>
       <c r="J10" t="n">
-        <v>-2671848.68</v>
+        <v>-1080016.75</v>
       </c>
       <c r="K10" t="n">
-        <v>-601787.61</v>
+        <v>-243255.06</v>
       </c>
       <c r="L10" t="n">
-        <v>-20779.33</v>
+        <v>-8399.440000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1494,117 +1494,117 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.88</v>
+        <v>-4.11</v>
       </c>
       <c r="C11" t="n">
-        <v>-6844.25</v>
+        <v>-2183.2</v>
       </c>
       <c r="D11" t="n">
-        <v>-139598.86</v>
+        <v>-44529.74</v>
       </c>
       <c r="E11" t="n">
-        <v>-2564298.32</v>
+        <v>-817968.9399999999</v>
       </c>
       <c r="F11" t="n">
-        <v>-4515733.61</v>
+        <v>-1440444.66</v>
       </c>
       <c r="G11" t="n">
-        <v>-6561869.82</v>
+        <v>-2093128.42</v>
       </c>
       <c r="H11" t="n">
-        <v>-7912783.24</v>
+        <v>-2524047.55</v>
       </c>
       <c r="I11" t="n">
-        <v>-7961732.89</v>
+        <v>-2539661.68</v>
       </c>
       <c r="J11" t="n">
-        <v>-2882695.32</v>
+        <v>-919532.34</v>
       </c>
       <c r="K11" t="n">
-        <v>-649277.17</v>
+        <v>-207108.72</v>
       </c>
       <c r="L11" t="n">
-        <v>-22419.11</v>
+        <v>-7151.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-12.48</v>
+        <v>-3.39</v>
       </c>
       <c r="C12" t="n">
-        <v>-6630.4</v>
+        <v>-1802.17</v>
       </c>
       <c r="D12" t="n">
-        <v>-135236.91</v>
+        <v>-36758.04</v>
       </c>
       <c r="E12" t="n">
-        <v>-2484173.38</v>
+        <v>-675210.21</v>
       </c>
       <c r="F12" t="n">
-        <v>-4374633.45</v>
+        <v>-1189046.3</v>
       </c>
       <c r="G12" t="n">
-        <v>-6356835.39</v>
+        <v>-1727818.27</v>
       </c>
       <c r="H12" t="n">
-        <v>-7665537.7</v>
+        <v>-2083529.82</v>
       </c>
       <c r="I12" t="n">
-        <v>-7712957.86</v>
+        <v>-2096418.84</v>
       </c>
       <c r="J12" t="n">
-        <v>-2792621.64</v>
+        <v>-759047.92</v>
       </c>
       <c r="K12" t="n">
-        <v>-628989.63</v>
+        <v>-170962.39</v>
       </c>
       <c r="L12" t="n">
-        <v>-21718.6</v>
+        <v>-5903.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-12.08</v>
+        <v>-2.68</v>
       </c>
       <c r="C13" t="n">
-        <v>-6416.54</v>
+        <v>-1421.14</v>
       </c>
       <c r="D13" t="n">
-        <v>-130874.95</v>
+        <v>-28986.34</v>
       </c>
       <c r="E13" t="n">
-        <v>-2404048.43</v>
+        <v>-532451.48</v>
       </c>
       <c r="F13" t="n">
-        <v>-4233533.29</v>
+        <v>-937647.9399999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-6151800.95</v>
+        <v>-1362508.12</v>
       </c>
       <c r="H13" t="n">
-        <v>-7418292.16</v>
+        <v>-1643012.08</v>
       </c>
       <c r="I13" t="n">
-        <v>-7464182.82</v>
+        <v>-1653176</v>
       </c>
       <c r="J13" t="n">
-        <v>-2702547.95</v>
+        <v>-598563.5</v>
       </c>
       <c r="K13" t="n">
-        <v>-608702.09</v>
+        <v>-134816.06</v>
       </c>
       <c r="L13" t="n">
-        <v>-21018.08</v>
+        <v>-4655.11</v>
       </c>
     </row>
     <row r="14">
@@ -1614,77 +1614,77 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-11.68</v>
+        <v>-1.96</v>
       </c>
       <c r="C14" t="n">
-        <v>-6202.68</v>
+        <v>-1040.11</v>
       </c>
       <c r="D14" t="n">
-        <v>-126513</v>
+        <v>-21214.64</v>
       </c>
       <c r="E14" t="n">
-        <v>-2323923.49</v>
+        <v>-389692.75</v>
       </c>
       <c r="F14" t="n">
-        <v>-4092433.13</v>
+        <v>-686249.58</v>
       </c>
       <c r="G14" t="n">
-        <v>-5946766.52</v>
+        <v>-997197.97</v>
       </c>
       <c r="H14" t="n">
-        <v>-7171046.62</v>
+        <v>-1202494.35</v>
       </c>
       <c r="I14" t="n">
-        <v>-7215407.79</v>
+        <v>-1209933.16</v>
       </c>
       <c r="J14" t="n">
-        <v>-2612474.26</v>
+        <v>-438079.09</v>
       </c>
       <c r="K14" t="n">
-        <v>-588414.5600000001</v>
+        <v>-98669.72</v>
       </c>
       <c r="L14" t="n">
-        <v>-20317.57</v>
+        <v>-3407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>USD/MXN-Call-Sell</t>
+          <t>USD/MXN-Put-Sell</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-11.27</v>
+        <v>-1.24</v>
       </c>
       <c r="C15" t="n">
-        <v>-5988.82</v>
+        <v>-659.08</v>
       </c>
       <c r="D15" t="n">
-        <v>-122151.04</v>
+        <v>-13442.94</v>
       </c>
       <c r="E15" t="n">
-        <v>-2243798.54</v>
+        <v>-246934.02</v>
       </c>
       <c r="F15" t="n">
-        <v>-3951332.97</v>
+        <v>-434851.22</v>
       </c>
       <c r="G15" t="n">
-        <v>-5741732.08</v>
+        <v>-631887.8199999999</v>
       </c>
       <c r="H15" t="n">
-        <v>-6923801.08</v>
+        <v>-761976.62</v>
       </c>
       <c r="I15" t="n">
-        <v>-6966632.75</v>
+        <v>-766690.3199999999</v>
       </c>
       <c r="J15" t="n">
-        <v>-2522400.58</v>
+        <v>-277594.67</v>
       </c>
       <c r="K15" t="n">
-        <v>-568127.02</v>
+        <v>-62523.39</v>
       </c>
       <c r="L15" t="n">
-        <v>-19617.05</v>
+        <v>-2158.89</v>
       </c>
     </row>
   </sheetData>
